--- a/server/rules.xlsx
+++ b/server/rules.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\quotation sample details\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovan\Downloads\grp_quotation_generator\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAD490A-4BD9-4AA6-937E-08D9F170E7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE698011-0DDC-4DF1-B3CA-E3BD5D049097}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22092" windowHeight="5844"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,27 +656,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADF89F8-C9CB-423B-BA3F-D0C74251BF49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="88.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="64.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="59.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.69921875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="64.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.09765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="51.09765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.69921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -706,7 +705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="55.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -735,7 +734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="55.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -758,7 +757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -781,7 +780,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="41.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -804,7 +803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="41.4">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
@@ -822,7 +821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="41.4">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -835,7 +834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="27.6">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -848,7 +847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="27.6">
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -859,7 +858,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="55.2">
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -870,7 +869,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="41.4">
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -878,7 +877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="27.6">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -886,10 +885,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>